--- a/CS504 Working Data Sets/Quits Changes with 2019-2020 Empl_Un Data_Cleaned_11_21_21_w_percent_change.xlsx
+++ b/CS504 Working Data Sets/Quits Changes with 2019-2020 Empl_Un Data_Cleaned_11_21_21_w_percent_change.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caitlinbertsch/DAEN Work/504-004/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50F303FE-2622-244E-B95A-2CC7700BAF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FEC6C7-6AC0-9E4B-B630-2686BB5EA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-140" yWindow="1180" windowWidth="28940" windowHeight="16820" xr2:uid="{2902AD05-36E3-4854-A4DA-3012D9D4B3F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Alabama</t>
   </si>
@@ -229,18 +229,6 @@
   </si>
   <si>
     <t>Emply_1 yr_Chg%</t>
-  </si>
-  <si>
-    <t>2019 Unemployed</t>
-  </si>
-  <si>
-    <t>2020 Unemployed</t>
-  </si>
-  <si>
-    <t>2019 Employed</t>
-  </si>
-  <si>
-    <t>2020 Employed</t>
   </si>
 </sst>
 </file>
@@ -622,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC4E916-5C82-43E2-99F2-E7FC13E6A40B}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,7 +634,7 @@
     <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>61</v>
       </c>
@@ -689,20 +677,8 @@
       <c r="N1" t="s">
         <v>64</v>
       </c>
-      <c r="O1" t="s">
-        <v>65</v>
-      </c>
-      <c r="P1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,31 +716,15 @@
         <v>1001000</v>
       </c>
       <c r="M2">
-        <f>((P2/O2)-1)*100</f>
+        <f>(((G2+H2)/(E2+F2))-1)*100</f>
         <v>0.24420392535198232</v>
       </c>
       <c r="N2">
-        <f>((R2/Q2)-1)*100</f>
+        <f>(((K2+L2)/(I2+J2))-1)*100</f>
         <v>0.4251442744271472</v>
       </c>
-      <c r="O2">
-        <f>SUM(E2:F2)</f>
-        <v>132676</v>
-      </c>
-      <c r="P2">
-        <f>SUM(G2:H2)</f>
-        <v>133000</v>
-      </c>
-      <c r="Q2">
-        <f>SUM(I2:J2)</f>
-        <v>2090114</v>
-      </c>
-      <c r="R2">
-        <f>SUM(K2:L2)</f>
-        <v>2099000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -802,31 +762,15 @@
         <v>151000</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M52" si="0">((P3/O3)-1)*100</f>
+        <f>(((G3+H3)/(E3+F3))-1)*100</f>
         <v>-4.4398706262863907</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N52" si="1">((R3/Q3)-1)*100</f>
+        <f t="shared" ref="N3:N52" si="0">(((K3+L3)/(I3+J3))-1)*100</f>
         <v>-8.4246438816395717</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O52" si="2">SUM(E3:F3)</f>
-        <v>27208</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P52" si="3">SUM(G3:H3)</f>
-        <v>26000</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q52" si="4">SUM(I3:J3)</f>
-        <v>346163</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R52" si="5">SUM(K3:L3)</f>
-        <v>317000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -864,31 +808,15 @@
         <v>1536000</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f>(((G4+H4)/(E4+F4))-1)*100</f>
         <v>42.194205457793466</v>
       </c>
       <c r="N4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7589540129239003</v>
       </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>194804</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="3"/>
-        <v>277000</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="4"/>
-        <v>3126922</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="5"/>
-        <v>3307000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,31 +854,15 @@
         <v>601000</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f>(((G5+H5)/(E5+F5))-1)*100</f>
         <v>19.762166427142326</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.37243420876041</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="2"/>
-        <v>70974</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="3"/>
-        <v>85000</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="4"/>
-        <v>1303935</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="5"/>
-        <v>1273000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -988,31 +900,15 @@
         <v>7583000</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f>(((G6+H6)/(E6+F6))-1)*100</f>
         <v>61.285309512389155</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-9.1580058460975948</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>1190437</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="3"/>
-        <v>1920000</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="4"/>
-        <v>18590521</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="5"/>
-        <v>16888000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1050,31 +946,15 @@
         <v>1310000</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f>(((G7+H7)/(E7+F7))-1)*100</f>
         <v>74.086801192873025</v>
       </c>
       <c r="N7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.21609516450915578</v>
       </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>132118</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="3"/>
-        <v>230000</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="4"/>
-        <v>2904276</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="5"/>
-        <v>2898000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1112,31 +992,15 @@
         <v>822000</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f>(((G8+H8)/(E8+F8))-1)*100</f>
         <v>24.648619838902409</v>
       </c>
       <c r="N8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5.0413508267409757</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>116327</v>
-      </c>
-      <c r="P8">
-        <f t="shared" si="3"/>
-        <v>145000</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="4"/>
-        <v>1814474</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="5"/>
-        <v>1723000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1174,31 +1038,15 @@
         <v>214000</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f>(((G9+H9)/(E9+F9))-1)*100</f>
         <v>49.747793190416132</v>
       </c>
       <c r="N9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.3068561928291866</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>25376</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="3"/>
-        <v>38000</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="4"/>
-        <v>452919</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="5"/>
-        <v>447000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1236,31 +1084,15 @@
         <v>191000</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f>(((G10+H10)/(E10+F10))-1)*100</f>
         <v>14.967306172307261</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.38116191790236176</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>27834</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="3"/>
-        <v>32000</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="4"/>
-        <v>375431</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="5"/>
-        <v>374000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1298,31 +1130,15 @@
         <v>4317000</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f>(((G11+H11)/(E11+F11))-1)*100</f>
         <v>42.188602517093734</v>
       </c>
       <c r="N11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.2873157637404051</v>
       </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>562633</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="3"/>
-        <v>800000</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="4"/>
-        <v>9488021</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="5"/>
-        <v>9271000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1360,31 +1176,15 @@
         <v>2289000</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f>(((G12+H12)/(E12+F12))-1)*100</f>
         <v>13.407517887458509</v>
       </c>
       <c r="N12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.2279829483611957</v>
       </c>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>290986</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="3"/>
-        <v>330000</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>4823466</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="5"/>
-        <v>4716000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1422,31 +1222,15 @@
         <v>275000</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f>(((G13+H13)/(E13+F13))-1)*100</f>
         <v>165.12244470801645</v>
       </c>
       <c r="N13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-15.836578513712297</v>
       </c>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>28666</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="3"/>
-        <v>76000</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="4"/>
-        <v>678442</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="5"/>
-        <v>571000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1484,31 +1268,15 @@
         <v>377000</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f>(((G14+H14)/(E14+F14))-1)*100</f>
         <v>27.650127650127644</v>
       </c>
       <c r="N14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3753863743290626</v>
       </c>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>36036</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="3"/>
-        <v>46000</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="4"/>
-        <v>790684</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="5"/>
-        <v>849000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1546,31 +1314,15 @@
         <v>2696000</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f>(((G15+H15)/(E15+F15))-1)*100</f>
         <v>45.138251198857262</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-9.1796540667901549</v>
       </c>
-      <c r="O15">
-        <f t="shared" si="2"/>
-        <v>392040</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="3"/>
-        <v>569000</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="4"/>
-        <v>6250802</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="5"/>
-        <v>5677000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1608,31 +1360,15 @@
         <v>1451000</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f>(((G16+H16)/(E16+F16))-1)*100</f>
         <v>45.237497012519846</v>
       </c>
       <c r="N16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.9491560020311836</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
-        <v>163181</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
-        <v>237000</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="4"/>
-        <v>3194202</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="5"/>
-        <v>3100000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1670,31 +1406,15 @@
         <v>737000</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
+        <f>(((G17+H17)/(E17+F17))-1)*100</f>
         <v>42.247510668563294</v>
       </c>
       <c r="N17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.5910169063527388</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>63270</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>90000</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="4"/>
-        <v>1611761</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="5"/>
-        <v>1570000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1732,31 +1452,15 @@
         <v>671000</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f>(((G18+H18)/(E18+F18))-1)*100</f>
         <v>36.378052648271499</v>
       </c>
       <c r="N18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.4024235381709049</v>
       </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
-        <v>63060</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>86000</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="4"/>
-        <v>1437155</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="5"/>
-        <v>1417000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1794,31 +1498,15 @@
         <v>877000</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
+        <f>(((G19+H19)/(E19+F19))-1)*100</f>
         <v>18.383668315268853</v>
       </c>
       <c r="N19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.8413482563695602</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>114036</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
-        <v>135000</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="4"/>
-        <v>1975648</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="5"/>
-        <v>1880000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1856,31 +1544,15 @@
         <v>917000</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
+        <f>(((G20+H20)/(E20+F20))-1)*100</f>
         <v>23.857521141197569</v>
       </c>
       <c r="N20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.1074009228751276</v>
       </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>140484</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
-        <v>174000</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="4"/>
-        <v>2031044</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="5"/>
-        <v>1907000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1918,31 +1590,15 @@
         <v>312000</v>
       </c>
       <c r="M21">
-        <f t="shared" si="0"/>
+        <f>(((G21+H21)/(E21+F21))-1)*100</f>
         <v>27.771254920919965</v>
       </c>
       <c r="N21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.6600202568666584</v>
       </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
-        <v>28958</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
-        <v>37000</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="4"/>
-        <v>667428</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="5"/>
-        <v>643000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1980,31 +1636,15 @@
         <v>1456000</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
+        <f>(((G22+H22)/(E22+F22))-1)*100</f>
         <v>27.992272164699482</v>
       </c>
       <c r="N22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.4521551067494993</v>
       </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>165635</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
-        <v>212000</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="4"/>
-        <v>3072052</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="5"/>
-        <v>2966000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2042,31 +1682,15 @@
         <v>1605000</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
+        <f>(((G23+H23)/(E23+F23))-1)*100</f>
         <v>88.320806145205253</v>
       </c>
       <c r="N23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-7.8394453277345288</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>181605</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>342000</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>3604579</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="5"/>
-        <v>3322000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -2104,31 +1728,15 @@
         <v>2092000</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f>(((G24+H24)/(E24+F24))-1)*100</f>
         <v>63.713604807791938</v>
       </c>
       <c r="N24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5.8912466603970532</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>289530</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
-        <v>474000</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="4"/>
-        <v>4651002</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="5"/>
-        <v>4377000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -2166,31 +1774,15 @@
         <v>1391000</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f>(((G25+H25)/(E25+F25))-1)*100</f>
         <v>63.530105624363301</v>
       </c>
       <c r="N25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.0792349800708432</v>
       </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>111906</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
-        <v>183000</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="4"/>
-        <v>2956472</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="5"/>
-        <v>2895000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -2228,31 +1820,15 @@
         <v>561000</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
+        <f>(((G26+H26)/(E26+F26))-1)*100</f>
         <v>3.95646058827126</v>
       </c>
       <c r="N26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.4762556759098029</v>
       </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>98118</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
-        <v>102000</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="4"/>
-        <v>1232842</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="5"/>
-        <v>1153000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -2290,31 +1866,15 @@
         <v>1375000</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f>(((G27+H27)/(E27+F27))-1)*100</f>
         <v>33.990318118948814</v>
       </c>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.0829685477585902</v>
       </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>138816</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
-        <v>186000</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="4"/>
-        <v>2912670</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="5"/>
-        <v>2852000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2352,31 +1912,15 @@
         <v>237000</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
+        <f>(((G28+H28)/(E28+F28))-1)*100</f>
         <v>45.457957957957952</v>
       </c>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.0219290981889784</v>
       </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>21312</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
-        <v>31000</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="4"/>
-        <v>513245</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="5"/>
-        <v>508000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -2414,31 +1958,15 @@
         <v>468000</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
+        <f>(((G29+H29)/(E29+F29))-1)*100</f>
         <v>30.555877915747942</v>
       </c>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.20400065729091477</v>
       </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
-        <v>34468</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
-        <v>45000</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="4"/>
-        <v>998036</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="5"/>
-        <v>996000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2476,31 +2004,15 @@
         <v>610000</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
+        <f>(((G30+H30)/(E30+F30))-1)*100</f>
         <v>115.23659883126527</v>
       </c>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.6657413915519257</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
-        <v>92921</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
-        <v>200000</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="4"/>
-        <v>1401385</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="5"/>
-        <v>1336000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -2538,31 +2050,15 @@
         <v>333000</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f>(((G31+H31)/(E31+F31))-1)*100</f>
         <v>79.507431607668551</v>
       </c>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.3372007606703225</v>
       </c>
-      <c r="O31">
-        <f t="shared" si="2"/>
-        <v>27854</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="3"/>
-        <v>50000</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="4"/>
-        <v>728305</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="5"/>
-        <v>704000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -2600,31 +2096,15 @@
         <v>1881000</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
+        <f>(((G32+H32)/(E32+F32))-1)*100</f>
         <v>72.59385039740431</v>
       </c>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-7.9024737571747217</v>
       </c>
-      <c r="O32">
-        <f t="shared" si="2"/>
-        <v>250878</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="3"/>
-        <v>433000</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="4"/>
-        <v>4426829</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="5"/>
-        <v>4077000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -2662,31 +2142,15 @@
         <v>394000</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
+        <f>(((G33+H33)/(E33+F33))-1)*100</f>
         <v>30.034784304801533</v>
       </c>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.4200922700734724</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="2"/>
-        <v>61522</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="3"/>
-        <v>80000</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="4"/>
-        <v>888262</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="5"/>
-        <v>849000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -2724,31 +2188,15 @@
         <v>3988000</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
+        <f>(((G34+H34)/(E34+F34))-1)*100</f>
         <v>68.211969069520293</v>
       </c>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-11.983115601622652</v>
       </c>
-      <c r="O34">
-        <f t="shared" si="2"/>
-        <v>545740</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="3"/>
-        <v>918000</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="4"/>
-        <v>9485680</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="5"/>
-        <v>8349000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -2786,31 +2234,15 @@
         <v>2203000</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f>(((G35+H35)/(E35+F35))-1)*100</f>
         <v>26.660631800405742</v>
       </c>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.9510399227471007</v>
       </c>
-      <c r="O35">
-        <f t="shared" si="2"/>
-        <v>279487</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="3"/>
-        <v>354000</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="4"/>
-        <v>4763575</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="5"/>
-        <v>4623000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -2848,31 +2280,15 @@
         <v>178000</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f>(((G36+H36)/(E36+F36))-1)*100</f>
         <v>81.438809761407953</v>
       </c>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-4.9938977803796298</v>
       </c>
-      <c r="O36">
-        <f t="shared" si="2"/>
-        <v>11023</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="4"/>
-        <v>403132</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="5"/>
-        <v>383000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2910,31 +2326,15 @@
         <v>2523000</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
+        <f>(((G37+H37)/(E37+F37))-1)*100</f>
         <v>51.593640058857737</v>
       </c>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.2536179993053391</v>
       </c>
-      <c r="O37">
-        <f t="shared" si="2"/>
-        <v>314657</v>
-      </c>
-      <c r="P37">
-        <f t="shared" si="3"/>
-        <v>477000</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="4"/>
-        <v>5597016</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="5"/>
-        <v>5247000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -2972,31 +2372,15 @@
         <v>783000</v>
       </c>
       <c r="M38">
-        <f t="shared" si="0"/>
+        <f>(((G38+H38)/(E38+F38))-1)*100</f>
         <v>19.783129491867356</v>
       </c>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.004645329593302</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="2"/>
-        <v>95172</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="3"/>
-        <v>114000</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="4"/>
-        <v>1772533</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="5"/>
-        <v>1737000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -3034,31 +2418,15 @@
         <v>914000</v>
       </c>
       <c r="M39">
-        <f t="shared" si="0"/>
+        <f>(((G39+H39)/(E39+F39))-1)*100</f>
         <v>45.416729093040267</v>
       </c>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.3473266490082403</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="2"/>
-        <v>113467</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="3"/>
-        <v>165000</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="4"/>
-        <v>1978659</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="5"/>
-        <v>1952000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3096,31 +2464,15 @@
         <v>2783000</v>
       </c>
       <c r="M40">
-        <f t="shared" si="0"/>
+        <f>(((G40+H40)/(E40+F40))-1)*100</f>
         <v>64.76066796720805</v>
       </c>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5.9602944904615036</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="2"/>
-        <v>349598</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="3"/>
-        <v>576000</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="4"/>
-        <v>6177178</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="5"/>
-        <v>5809000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -3158,31 +2510,15 @@
         <v>235000</v>
       </c>
       <c r="M41">
-        <f t="shared" si="0"/>
+        <f>(((G41+H41)/(E41+F41))-1)*100</f>
         <v>65.224997570220623</v>
       </c>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-6.8777188045051618</v>
       </c>
-      <c r="O41">
-        <f t="shared" si="2"/>
-        <v>30867</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="3"/>
-        <v>51000</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="4"/>
-        <v>532633</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="5"/>
-        <v>496000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -3220,31 +2556,15 @@
         <v>1083000</v>
       </c>
       <c r="M42">
-        <f t="shared" si="0"/>
+        <f>(((G42+H42)/(E42+F42))-1)*100</f>
         <v>5.4191122001253644</v>
       </c>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5256911808681495</v>
       </c>
-      <c r="O42">
-        <f t="shared" si="2"/>
-        <v>140392</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="3"/>
-        <v>148000</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="4"/>
-        <v>2270643</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="5"/>
-        <v>2236000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -3282,31 +2602,15 @@
         <v>208000</v>
       </c>
       <c r="M43">
-        <f t="shared" si="0"/>
+        <f>(((G43+H43)/(E43+F43))-1)*100</f>
         <v>23.507616303005353</v>
       </c>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9279956648377663</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="2"/>
-        <v>17003</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="3"/>
-        <v>21000</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="4"/>
-        <v>442890</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="5"/>
-        <v>447000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -3344,31 +2648,15 @@
         <v>1439000</v>
       </c>
       <c r="M44">
-        <f t="shared" si="0"/>
+        <f>(((G44+H44)/(E44+F44))-1)*100</f>
         <v>44.469886879507548</v>
       </c>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.0750111856751241</v>
       </c>
-      <c r="O44">
-        <f t="shared" si="2"/>
-        <v>175123</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="3"/>
-        <v>253000</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="4"/>
-        <v>3104417</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="5"/>
-        <v>3040000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -3406,31 +2694,15 @@
         <v>5813000</v>
       </c>
       <c r="M45">
-        <f t="shared" si="0"/>
+        <f>(((G45+H45)/(E45+F45))-1)*100</f>
         <v>49.790931614405487</v>
       </c>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.2913711317157581</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="2"/>
-        <v>704315</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="3"/>
-        <v>1055000</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="4"/>
-        <v>13248574</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="5"/>
-        <v>12945000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -3468,31 +2740,15 @@
         <v>686000</v>
       </c>
       <c r="M46">
-        <f t="shared" si="0"/>
+        <f>(((G46+H46)/(E46+F46))-1)*100</f>
         <v>42.981249547527689</v>
       </c>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5209140315280996</v>
       </c>
-      <c r="O46">
-        <f t="shared" si="2"/>
-        <v>55252</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="3"/>
-        <v>79000</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="4"/>
-        <v>1496316</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="5"/>
-        <v>1549000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -3530,31 +2786,15 @@
         <v>154000</v>
       </c>
       <c r="M47">
-        <f t="shared" si="0"/>
+        <f>(((G47+H47)/(E47+F47))-1)*100</f>
         <v>53.485741982389534</v>
       </c>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-5.3660188421396304</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="2"/>
-        <v>12379</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="3"/>
-        <v>19000</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="4"/>
-        <v>330748</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="5"/>
-        <v>313000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -3592,31 +2832,15 @@
         <v>1956000</v>
       </c>
       <c r="M48">
-        <f t="shared" si="0"/>
+        <f>(((G48+H48)/(E48+F48))-1)*100</f>
         <v>38.071616492278039</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.0800784329774826</v>
       </c>
-      <c r="O48">
-        <f t="shared" si="2"/>
-        <v>199172</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="3"/>
-        <v>275000</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="4"/>
-        <v>4153865</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="5"/>
-        <v>4109000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -3654,31 +2878,15 @@
         <v>1673000</v>
       </c>
       <c r="M49">
-        <f t="shared" si="0"/>
+        <f>(((G49+H49)/(E49+F49))-1)*100</f>
         <v>74.2345932927674</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.757688217258746E-2</v>
       </c>
-      <c r="O49">
-        <f t="shared" si="2"/>
-        <v>187678</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="3"/>
-        <v>327000</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="4"/>
-        <v>3595632</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="5"/>
-        <v>3595000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -3716,31 +2924,15 @@
         <v>346000</v>
       </c>
       <c r="M50">
-        <f t="shared" si="0"/>
+        <f>(((G50+H50)/(E50+F50))-1)*100</f>
         <v>21.823546207290367</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.9331825511112677</v>
       </c>
-      <c r="O50">
-        <f t="shared" si="2"/>
-        <v>52535</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="3"/>
-        <v>64000</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="4"/>
-        <v>742351</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="5"/>
-        <v>728000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -3778,31 +2970,15 @@
         <v>1357000</v>
       </c>
       <c r="M51">
-        <f t="shared" si="0"/>
+        <f>(((G51+H51)/(E51+F51))-1)*100</f>
         <v>77.078651685393254</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-3.5916950844493867</v>
       </c>
-      <c r="O51">
-        <f t="shared" si="2"/>
-        <v>111250</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="3"/>
-        <v>197000</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="4"/>
-        <v>2985220</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="5"/>
-        <v>2878000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -3840,28 +3016,12 @@
         <v>129000</v>
       </c>
       <c r="M52">
-        <f t="shared" si="0"/>
+        <f>(((G52+H52)/(E52+F52))-1)*100</f>
         <v>26.582278481012665</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.7867790019442618</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="2"/>
-        <v>14220</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="3"/>
-        <v>18000</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="4"/>
-        <v>286998</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="5"/>
-        <v>279000</v>
       </c>
     </row>
   </sheetData>
